--- a/BackEnd/Vistas/Excel/SCANTE_HorasExtras.xlsx
+++ b/BackEnd/Vistas/Excel/SCANTE_HorasExtras.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A8072C-2FE4-476C-A429-927760CC45E0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184BA383-8FA4-428A-AB8D-1AD246712EFE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{830D1C10-008E-4BAC-BE05-9936ECAC4801}"/>
   </bookViews>
@@ -30,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
-  <si>
-    <t>Codigo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Nombre</t>
   </si>
@@ -50,40 +47,40 @@
     <t>HoraFinal</t>
   </si>
   <si>
-    <t>2019-07-08</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Jose</t>
-  </si>
-  <si>
-    <t>Santos</t>
-  </si>
-  <si>
-    <t>Jorge</t>
-  </si>
-  <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>08:00:00</t>
-  </si>
-  <si>
-    <t>08:00:01</t>
-  </si>
-  <si>
-    <t>08:00:02</t>
-  </si>
-  <si>
-    <t>08:00:03</t>
-  </si>
-  <si>
-    <t>08:00:04</t>
-  </si>
-  <si>
-    <t>08:00:05</t>
+    <t>Angel Jesus Perez Cazanova</t>
+  </si>
+  <si>
+    <t>Aidee Marisela Cauich Cauich</t>
+  </si>
+  <si>
+    <t>Eric Fernando Euan Toledano</t>
+  </si>
+  <si>
+    <t>Ana Gabriela Castillo Dorantes</t>
+  </si>
+  <si>
+    <t>2019-07-30</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>07:30</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>IdPersonal</t>
   </si>
 </sst>
 </file>
@@ -445,7 +442,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,112 +467,100 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
+      <c r="F3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
+      <c r="F4">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
+      <c r="F5">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="http://localhost:8081/RecursosHumanos/BackEnd/Vistas/MenuEmpleado.php?IdPersonal=1" xr:uid="{6E2A75BB-C0C3-4320-ABCC-88094F017846}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>